--- a/reports/corpus_dwi-unigram_bigram_trigram-fold-2.xlsx
+++ b/reports/corpus_dwi-unigram_bigram_trigram-fold-2.xlsx
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.672</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5945945945945946</v>
+        <v>0.9459459459459459</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="I2" t="n">
-        <v>0.28125</v>
+        <v>0.65625</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -642,76 +642,76 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.9178082191780822</v>
+        <v>0.9863013698630136</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0.6303030303030303</v>
+        <v>0.9575757575757575</v>
       </c>
       <c r="O2" t="n">
-        <v>0.2189054726368159</v>
+        <v>0.736318407960199</v>
       </c>
       <c r="P2" t="n">
-        <v>0.5405405405405406</v>
+        <v>0.972972972972973</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.6363636363636364</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="R2" t="n">
-        <v>0.9981378026070763</v>
+        <v>0.9646182495344506</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0.1</v>
+        <v>0.4142857142857143</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3811475409836065</v>
+        <v>0.6598360655737705</v>
       </c>
       <c r="V2" t="n">
-        <v>0.3684210526315789</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0.7172774869109948</v>
+        <v>0.9581151832460733</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.3837209302325582</v>
+        <v>0.8662790697674418</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.5256410256410257</v>
+        <v>0.8717948717948718</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.7021276595744681</v>
+        <v>0.9893617021276596</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.4666666666666667</v>
+        <v>0.6</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.1398305084745763</v>
+        <v>0.5550847457627118</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.5410628019323671</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.3636363636363636</v>
+        <v>0.8484848484848485</v>
       </c>
       <c r="AF2" t="n">
         <v>0</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.5909380982769623</v>
+        <v>0.8423739629865986</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.3543048998727413</v>
+        <v>0.6592212449059</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.8520541863434169</v>
+        <v>0.88581306111708</v>
       </c>
     </row>
     <row r="3">
@@ -724,22 +724,22 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9705882352941176</v>
+        <v>0.9292035398230089</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
@@ -757,55 +757,55 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>1</v>
+        <v>0.9937106918238994</v>
       </c>
       <c r="O3" t="n">
-        <v>0.9565217391304348</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="P3" t="n">
         <v>1</v>
       </c>
       <c r="Q3" t="n">
-        <v>1</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="R3" t="n">
-        <v>0.2994413407821229</v>
+        <v>0.5606060606060606</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0.875</v>
+        <v>0.9666666666666667</v>
       </c>
       <c r="U3" t="n">
-        <v>0.9789473684210527</v>
+        <v>0.9096045197740112</v>
       </c>
       <c r="V3" t="n">
-        <v>1</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>1</v>
+        <v>0.9945652173913043</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.9565217391304348</v>
+        <v>0.9490445859872612</v>
       </c>
       <c r="Z3" t="n">
-        <v>1</v>
+        <v>0.9855072463768116</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.9705882352941176</v>
+        <v>0.96875</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.75</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.8461538461538461</v>
+        <v>0.891156462585034</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.8679245283018868</v>
+        <v>0.835820895522388</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
@@ -814,13 +814,13 @@
         <v>0</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.5909380982769623</v>
+        <v>0.8423739629865986</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.6612730583963158</v>
+        <v>0.762109209284915</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.5909380982769623</v>
+        <v>0.8423739629865986</v>
       </c>
     </row>
     <row r="4">
@@ -830,28 +830,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8038277511961722</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9898989898989899</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7374301675977654</v>
+        <v>0.9375</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="G4" t="n">
-        <v>0.25</v>
+        <v>0.9019607843137255</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>0.9600000000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4390243902439024</v>
+        <v>0.7924528301886793</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -860,76 +860,76 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0.9571428571428571</v>
+        <v>0.9931034482758621</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0.7732342007434944</v>
+        <v>0.9753086419753086</v>
       </c>
       <c r="O4" t="n">
-        <v>0.3562753036437247</v>
+        <v>0.8385269121813033</v>
       </c>
       <c r="P4" t="n">
-        <v>0.7017543859649124</v>
+        <v>0.9863013698630138</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="R4" t="n">
-        <v>0.4606789858186507</v>
+        <v>0.7091033538672142</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1794871794871795</v>
+        <v>0.5800000000000001</v>
       </c>
       <c r="U4" t="n">
-        <v>0.5486725663716814</v>
+        <v>0.7648456057007126</v>
       </c>
       <c r="V4" t="n">
-        <v>0.5384615384615384</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0.8353658536585367</v>
+        <v>0.976</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.5477178423236515</v>
+        <v>0.9057750759878419</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.6890756302521009</v>
+        <v>0.9251700680272109</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.8148148148148149</v>
+        <v>0.9789473684210526</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.6666666666666665</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.24</v>
+        <v>0.6840731070496083</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.3538461538461539</v>
+        <v>0.656891495601173</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.9180327868852458</v>
       </c>
       <c r="AF4" t="n">
         <v>0</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.5909380982769623</v>
+        <v>0.8423739629865986</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.4229404211584055</v>
+        <v>0.6925072550243297</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.588071996562422</v>
+        <v>0.8414711816911172</v>
       </c>
     </row>
     <row r="5">
@@ -939,28 +939,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="E5" t="n">
-        <v>68</v>
+        <v>113</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I5" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -969,70 +969,70 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
+        <v>144</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>159</v>
+      </c>
+      <c r="O5" t="n">
+        <v>152</v>
+      </c>
+      <c r="P5" t="n">
+        <v>36</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>66</v>
+      </c>
+      <c r="R5" t="n">
+        <v>924</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>30</v>
+      </c>
+      <c r="U5" t="n">
+        <v>177</v>
+      </c>
+      <c r="V5" t="n">
+        <v>19</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1</v>
+      </c>
+      <c r="X5" t="n">
+        <v>184</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>157</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>69</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>96</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>147</v>
+      </c>
+      <c r="AD5" t="n">
         <v>134</v>
       </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>104</v>
-      </c>
-      <c r="O5" t="n">
-        <v>46</v>
-      </c>
-      <c r="P5" t="n">
-        <v>20</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>42</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1790</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>8</v>
-      </c>
-      <c r="U5" t="n">
-        <v>95</v>
-      </c>
-      <c r="V5" t="n">
-        <v>7</v>
-      </c>
-      <c r="W5" t="n">
-        <v>1</v>
-      </c>
-      <c r="X5" t="n">
-        <v>137</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>69</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>68</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>9</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>39</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>53</v>
-      </c>
       <c r="AE5" t="n">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="AF5" t="n">
         <v>0</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.5909380982769623</v>
+        <v>0.8423739629865986</v>
       </c>
       <c r="AH5" t="n">
         <v>3134</v>

--- a/reports/corpus_dwi-unigram_bigram_trigram-fold-2.xlsx
+++ b/reports/corpus_dwi-unigram_bigram_trigram-fold-2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI5"/>
+  <dimension ref="A1:AE5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,130 +476,110 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>CON</t>
+          <t>DT</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>DC</t>
+          <t>FW</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>DT</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>FW</t>
+          <t>JJ</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>MD</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>JJ</t>
+          <t>NEG</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>NEG</t>
+          <t>NNG</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>NNP</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>NNC</t>
+          <t>PRL</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>NNG</t>
+          <t>PRN</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>NNP</t>
+          <t>PRP</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>PRL</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>PRN</t>
+          <t>RP</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>PRP</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>UH</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>RP</t>
+          <t>VBI</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>VBT</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>UH</t>
+          <t>WP</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>VBI</t>
+          <t>accuracy</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>VBT</t>
+          <t>macro avg</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>WP</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>rb</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>accuracy</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>macro avg</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>weighted avg</t>
         </is>
@@ -621,7 +601,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9459459459459459</v>
+        <v>0.9464285714285714</v>
       </c>
       <c r="F2" t="n">
         <v>0.25</v>
@@ -636,82 +616,70 @@
         <v>0.65625</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>0.9863013698630136</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.9863013698630136</v>
+        <v>0.9575757575757575</v>
       </c>
       <c r="M2" t="n">
+        <v>0.736318407960199</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.972972972972973</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.9696969696969697</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.9646182495344506</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.4142857142857143</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.6612244897959184</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.9473684210526315</v>
+      </c>
+      <c r="T2" t="n">
         <v>0</v>
       </c>
-      <c r="N2" t="n">
-        <v>0.9575757575757575</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.736318407960199</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.972972972972973</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.9696969696969697</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0.9646182495344506</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0.4142857142857143</v>
-      </c>
       <c r="U2" t="n">
-        <v>0.6598360655737705</v>
+        <v>0.9581151832460733</v>
       </c>
       <c r="V2" t="n">
-        <v>0.9473684210526315</v>
+        <v>0.861271676300578</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>0.8717948717948718</v>
       </c>
       <c r="X2" t="n">
-        <v>0.9581151832460733</v>
+        <v>0.9894736842105263</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.8662790697674418</v>
+        <v>0.6</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.8717948717948718</v>
+        <v>0.5550847457627118</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.9893617021276596</v>
+        <v>0.5410628019323671</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.6</v>
+        <v>0.8484848484848485</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.5550847457627118</v>
+        <v>0.8433312061263561</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.5410628019323671</v>
+        <v>0.7567716381630989</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.8484848484848485</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>0.8423739629865986</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>0.6592212449059</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>0.88581306111708</v>
+        <v>0.8856614584599374</v>
       </c>
     </row>
     <row r="3">
@@ -730,7 +698,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9292035398230089</v>
+        <v>0.9380530973451328</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -745,82 +713,70 @@
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1</v>
+        <v>0.9937106918238994</v>
       </c>
       <c r="M3" t="n">
+        <v>0.9736842105263158</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.9696969696969697</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.5606060606060606</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.9666666666666667</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.9152542372881356</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.9473684210526315</v>
+      </c>
+      <c r="T3" t="n">
         <v>0</v>
       </c>
-      <c r="N3" t="n">
-        <v>0.9937106918238994</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0.9736842105263158</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.9696969696969697</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0.5606060606060606</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0.9666666666666667</v>
-      </c>
       <c r="U3" t="n">
-        <v>0.9096045197740112</v>
+        <v>0.9945652173913043</v>
       </c>
       <c r="V3" t="n">
-        <v>0.9473684210526315</v>
+        <v>0.9490445859872612</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>0.9855072463768116</v>
       </c>
       <c r="X3" t="n">
-        <v>0.9945652173913043</v>
+        <v>0.9791666666666666</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.9490445859872612</v>
+        <v>0.75</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.9855072463768116</v>
+        <v>0.891156462585034</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.96875</v>
+        <v>0.835820895522388</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.891156462585034</v>
+        <v>0.8433312061263561</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.835820895522388</v>
+        <v>0.8759370899827881</v>
       </c>
       <c r="AE3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>0.8423739629865986</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>0.762109209284915</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>0.8423739629865986</v>
+        <v>0.8433312061263561</v>
       </c>
     </row>
     <row r="4">
@@ -839,7 +795,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9375</v>
+        <v>0.9422222222222223</v>
       </c>
       <c r="F4" t="n">
         <v>0.4</v>
@@ -854,82 +810,70 @@
         <v>0.7924528301886793</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>0.9931034482758621</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0.9931034482758621</v>
+        <v>0.9753086419753086</v>
       </c>
       <c r="M4" t="n">
+        <v>0.8385269121813033</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.9863013698630138</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.9696969696969697</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.7091033538672142</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.5800000000000001</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.7677725118483413</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.9473684210526315</v>
+      </c>
+      <c r="T4" t="n">
         <v>0</v>
       </c>
-      <c r="N4" t="n">
-        <v>0.9753086419753086</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0.8385269121813033</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0.9863013698630138</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.9696969696969697</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0.7091033538672142</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0.5800000000000001</v>
-      </c>
       <c r="U4" t="n">
-        <v>0.7648456057007126</v>
+        <v>0.976</v>
       </c>
       <c r="V4" t="n">
-        <v>0.9473684210526315</v>
+        <v>0.903030303030303</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>0.9251700680272109</v>
       </c>
       <c r="X4" t="n">
-        <v>0.976</v>
+        <v>0.9842931937172775</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.9057750759878419</v>
+        <v>0.6666666666666665</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.9251700680272109</v>
+        <v>0.6840731070496083</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.9789473684210526</v>
+        <v>0.656891495601173</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.6666666666666665</v>
+        <v>0.9180327868852458</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.6840731070496083</v>
+        <v>0.8433312061263561</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.656891495601173</v>
+        <v>0.7954805587578798</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.9180327868852458</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>0.8423739629865986</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>0.6925072550243297</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>0.8414711816911172</v>
+        <v>0.8418330015294532</v>
       </c>
     </row>
     <row r="5">
@@ -963,81 +907,69 @@
         <v>21</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>152</v>
       </c>
       <c r="N5" t="n">
-        <v>159</v>
+        <v>36</v>
       </c>
       <c r="O5" t="n">
-        <v>152</v>
+        <v>66</v>
       </c>
       <c r="P5" t="n">
-        <v>36</v>
+        <v>924</v>
       </c>
       <c r="Q5" t="n">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="R5" t="n">
-        <v>924</v>
+        <v>177</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="T5" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="U5" t="n">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="V5" t="n">
-        <v>19</v>
+        <v>157</v>
       </c>
       <c r="W5" t="n">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="X5" t="n">
-        <v>184</v>
+        <v>96</v>
       </c>
       <c r="Y5" t="n">
-        <v>157</v>
+        <v>12</v>
       </c>
       <c r="Z5" t="n">
-        <v>69</v>
+        <v>147</v>
       </c>
       <c r="AA5" t="n">
-        <v>96</v>
+        <v>134</v>
       </c>
       <c r="AB5" t="n">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="AC5" t="n">
-        <v>147</v>
+        <v>0.8433312061263561</v>
       </c>
       <c r="AD5" t="n">
-        <v>134</v>
+        <v>3134</v>
       </c>
       <c r="AE5" t="n">
-        <v>28</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>0.8423739629865986</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>3134</v>
-      </c>
-      <c r="AI5" t="n">
         <v>3134</v>
       </c>
     </row>
